--- a/platform_db_list.xlsx
+++ b/platform_db_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PLATFORMDB" sheetId="1" r:id="rId1"/>
@@ -1979,8 +1979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11952,9 +11952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12589,7 +12589,7 @@
         <v>424</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>408</v>
@@ -12618,7 +12618,7 @@
         <v>424</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>408</v>
@@ -12647,7 +12647,7 @@
         <v>424</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>408</v>
@@ -12676,7 +12676,7 @@
         <v>424</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>408</v>
@@ -12705,7 +12705,7 @@
         <v>424</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>408</v>
@@ -12734,7 +12734,7 @@
         <v>424</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>425</v>
+        <v>24</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>408</v>

--- a/platform_db_list.xlsx
+++ b/platform_db_list.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="PLATFORMDB" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">DISPLAYDB!$A$1:$I$50</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLATFORMDB!$A$1:$Z$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLATFORMDB!$A$1:$Z$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UI_CONFIG!$A$1:$O$49</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3718" uniqueCount="518">
   <si>
     <t>Platform_Name</t>
   </si>
@@ -1423,24 +1423,6 @@
     <t>ICL</t>
   </si>
   <si>
-    <t>DUMMY</t>
-  </si>
-  <si>
-    <t>DUMMYTYPE</t>
-  </si>
-  <si>
-    <t>DUMMTYPE</t>
-  </si>
-  <si>
-    <t>DUMMYCLIENT</t>
-  </si>
-  <si>
-    <t>DUMMYTABLET</t>
-  </si>
-  <si>
-    <t>DUMMTYPEMBL</t>
-  </si>
-  <si>
     <t>MergeEFI_ICL_DT8.bat</t>
   </si>
   <si>
@@ -1544,19 +1526,86 @@
   </si>
   <si>
     <t>\\amr\ec\proj\gm\GSTC\FlashFolders\FlashICL\EFI</t>
+  </si>
+  <si>
+    <t>DUMMY1</t>
+  </si>
+  <si>
+    <t>DUMMY2</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>DEFAULTYPE</t>
+  </si>
+  <si>
+    <t>MERGEEFI_DUMMY1.BAT</t>
+  </si>
+  <si>
+    <t>MERGEEFI_DUMMY2.BAT</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY1</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY2</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY1\\EFI</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY2\\EFI</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY1\\KSC</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY2\\KSC</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY1\\EXTERN\\SSF</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY2\\EXTERN\\SSF</t>
+  </si>
+  <si>
+    <t>DUMMY_IFWI1</t>
+  </si>
+  <si>
+    <t>DUMMY_IFWI2</t>
+  </si>
+  <si>
+    <t>efi_DUMMY1_ULT_</t>
+  </si>
+  <si>
+    <t>efi_DUMMY2_ULX_</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY1\\BIOS\\ULT</t>
+  </si>
+  <si>
+    <t>C:\\TEMP\\FLASHDUMMY2\\BIOS\\ULX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1672,28 +1721,29 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -1977,10 +2027,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z89"/>
+  <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1988,7 +2040,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="5" width="38.5703125" customWidth="1"/>
     <col min="6" max="7" width="64.140625" customWidth="1"/>
     <col min="8" max="8" width="55.7109375" customWidth="1"/>
@@ -2109,22 +2161,22 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>474</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>480</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>30</v>
@@ -2151,13 +2203,13 @@
         <v>203</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="V2" s="12" t="s">
         <v>33</v>
@@ -2189,22 +2241,22 @@
         <v>25</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>30</v>
@@ -2231,13 +2283,13 @@
         <v>203</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="T3" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U3" s="12" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="V3" s="12" t="s">
         <v>33</v>
@@ -2269,22 +2321,22 @@
         <v>25</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="K4" s="12" t="s">
         <v>30</v>
@@ -2311,13 +2363,13 @@
         <v>203</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="T4" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>33</v>
@@ -2349,22 +2401,22 @@
         <v>25</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I5" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>30</v>
@@ -2391,13 +2443,13 @@
         <v>203</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U5" s="12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="V5" s="12" t="s">
         <v>33</v>
@@ -2429,22 +2481,22 @@
         <v>25</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>30</v>
@@ -2471,13 +2523,13 @@
         <v>203</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="T6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="V6" s="12" t="s">
         <v>33</v>
@@ -2524,7 +2576,7 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>30</v>
@@ -2604,7 +2656,7 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>30</v>
@@ -2684,7 +2736,7 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>30</v>
@@ -2764,7 +2816,7 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>30</v>
@@ -2844,7 +2896,7 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>30</v>
@@ -2924,7 +2976,7 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>30</v>
@@ -3004,7 +3056,7 @@
         <v>24</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>30</v>
@@ -9135,8 +9187,168 @@
         <v>24</v>
       </c>
     </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>498</v>
+      </c>
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>25</v>
+      </c>
+      <c r="E90" t="s">
+        <v>502</v>
+      </c>
+      <c r="F90" t="s">
+        <v>504</v>
+      </c>
+      <c r="G90" t="s">
+        <v>516</v>
+      </c>
+      <c r="H90" t="s">
+        <v>506</v>
+      </c>
+      <c r="I90" t="s">
+        <v>508</v>
+      </c>
+      <c r="J90" t="s">
+        <v>510</v>
+      </c>
+      <c r="K90" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="N90" t="s">
+        <v>24</v>
+      </c>
+      <c r="O90" t="s">
+        <v>202</v>
+      </c>
+      <c r="P90" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>364</v>
+      </c>
+      <c r="R90" t="s">
+        <v>203</v>
+      </c>
+      <c r="S90" t="s">
+        <v>512</v>
+      </c>
+      <c r="T90" t="s">
+        <v>33</v>
+      </c>
+      <c r="U90" t="s">
+        <v>514</v>
+      </c>
+      <c r="V90" t="s">
+        <v>33</v>
+      </c>
+      <c r="W90" t="s">
+        <v>24</v>
+      </c>
+      <c r="X90" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>499</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E91" t="s">
+        <v>503</v>
+      </c>
+      <c r="F91" t="s">
+        <v>505</v>
+      </c>
+      <c r="G91" t="s">
+        <v>517</v>
+      </c>
+      <c r="H91" t="s">
+        <v>507</v>
+      </c>
+      <c r="I91" t="s">
+        <v>509</v>
+      </c>
+      <c r="J91" t="s">
+        <v>511</v>
+      </c>
+      <c r="K91" t="s">
+        <v>66</v>
+      </c>
+      <c r="L91" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="N91" t="s">
+        <v>24</v>
+      </c>
+      <c r="O91" t="s">
+        <v>202</v>
+      </c>
+      <c r="P91" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>364</v>
+      </c>
+      <c r="R91" t="s">
+        <v>203</v>
+      </c>
+      <c r="S91" t="s">
+        <v>513</v>
+      </c>
+      <c r="T91" t="s">
+        <v>33</v>
+      </c>
+      <c r="U91" t="s">
+        <v>515</v>
+      </c>
+      <c r="V91" t="s">
+        <v>33</v>
+      </c>
+      <c r="W91" t="s">
+        <v>24</v>
+      </c>
+      <c r="X91" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:Z89"/>
+  <autoFilter ref="A1:Z91"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G4" r:id="rId2"/>
@@ -9155,7 +9367,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11481,11 +11693,11 @@
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>465</v>
+      <c r="A50" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>30</v>
@@ -11528,11 +11740,11 @@
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>468</v>
+      <c r="A51" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>66</v>
@@ -11582,10 +11794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11893,8 +12105,8 @@
       <c r="F13" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>408</v>
+      <c r="G13" s="15" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -11916,8 +12128,8 @@
       <c r="F14" s="4" t="s">
         <v>416</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>408</v>
+      <c r="G14" s="15" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -11939,8 +12151,54 @@
       <c r="F15" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>408</v>
+      <c r="G15" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -11950,11 +12208,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H7"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12563,15 +12821,15 @@
         <v>422</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>24</v>
@@ -13985,6 +14243,64 @@
       </c>
       <c r="I50" s="5" t="s">
         <v>409</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
